--- a/zaman/Java/theInternetHerokuap/target/test-classes/com/app/theInternetHerokuapp/testData/loginData.xlsx
+++ b/zaman/Java/theInternetHerokuap/target/test-classes/com/app/theInternetHerokuapp/testData/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\practices\students2023\zaman\Java\theInternetHerokuap\src\test\java\com\app\theInternetHerokuapp\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B831A7-F85E-4647-ACA8-92A6FEC1CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DCD65-BA23-4AFF-B01E-45A8A033D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="1500" windowWidth="21600" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35895" yWindow="1515" windowWidth="21600" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -67,13 +67,22 @@
   </si>
   <si>
     <t>SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +102,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,10 +143,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,72 +434,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
